--- a/F_dataset/DUD-E/MAPK2/MAPK2_preprocessing/MAPK2_test.xlsx
+++ b/F_dataset/DUD-E/MAPK2/MAPK2_preprocessing/MAPK2_test.xlsx
@@ -604,7 +604,7 @@
       <c r="T2" t="inlineStr"/>
       <c r="U2" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F0BD648C80&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBBF370&gt;</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
@@ -672,7 +672,7 @@
       <c r="T3" t="inlineStr"/>
       <c r="U3" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F0BD648C10&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBBEAB0&gt;</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
@@ -740,7 +740,7 @@
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F0BD64AF80&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBBF5A0&gt;</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
@@ -808,7 +808,7 @@
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F0BD64B290&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBBE7A0&gt;</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
@@ -876,7 +876,7 @@
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F0BD64AB90&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBBF840&gt;</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
@@ -944,7 +944,7 @@
       <c r="T7" t="inlineStr"/>
       <c r="U7" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F0BD648AC0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBBEE30&gt;</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
@@ -1012,7 +1012,7 @@
       <c r="T8" t="inlineStr"/>
       <c r="U8" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F0BD6497E0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBBF450&gt;</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
@@ -1080,7 +1080,7 @@
       <c r="T9" t="inlineStr"/>
       <c r="U9" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F0BD648190&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBBF920&gt;</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
@@ -1148,7 +1148,7 @@
       <c r="T10" t="inlineStr"/>
       <c r="U10" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F0BD64A110&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBBFDF0&gt;</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
@@ -1242,7 +1242,7 @@
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F0BD64A8F0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBBE570&gt;</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
@@ -1254,7 +1254,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>C12555717</t>
+          <t>C13282089</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -1262,12 +1262,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Nc1ncnc2sc3c(c12)CCN(C(=O)/C=C/c1ccccc1F)C3</t>
+          <t>NC1=[NH+]c2nc3ccccc3n2[C@H](c2ccc(-c3ccc(Br)cc3)o2)N1</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Nc1ncnc2sc3c(c12)CCN(C(=O)/C=C/c1ccccc1F)C3</t>
+          <t>NC1=[NH+]c2nc3ccccc3n2[C@H](c2ccc(-c3ccc(Br)cc3)o2)N1</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1281,10 +1281,10 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>354.41</v>
+        <v>409.27</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I12" t="n">
         <v>4</v>
@@ -1293,13 +1293,13 @@
         <v>2</v>
       </c>
       <c r="K12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M12" t="n">
-        <v>72.11</v>
+        <v>82.98</v>
       </c>
       <c r="N12" t="inlineStr"/>
       <c r="O12" t="inlineStr"/>
@@ -1310,7 +1310,7 @@
       <c r="T12" t="inlineStr"/>
       <c r="U12" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F0BD60F840&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBA9540&gt;</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
@@ -1322,7 +1322,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>C19219727</t>
+          <t>C20650058</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -1330,12 +1330,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Cc1ccc2c([C@@H](O)C[NH+]3CCC4(CC3)C[C@H](O)c3ccc5ccccc5c3O4)c[nH]c2c1</t>
+          <t>COc1ccc(Nc2nc(NCC[NH+](C)C)c3c(c2C#N)CC(C)(C)OC3)cc1</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Cc1ccc2c([C@@H](O)C[NH+]3CCC4(CC3)C[C@H](O)c3ccc5ccccc5c3O4)c[nH]c2c1</t>
+          <t>COc1ccc(Nc2nc(NCC[NH+](C)C)c3c(c2C#N)CC(C)(C)OC3)cc1</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1349,25 +1349,25 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>443.57</v>
+        <v>396.52</v>
       </c>
       <c r="H13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I13" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J13" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="K13" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L13" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M13" t="n">
-        <v>69.92</v>
+        <v>83.64</v>
       </c>
       <c r="N13" t="inlineStr"/>
       <c r="O13" t="inlineStr"/>
@@ -1378,7 +1378,7 @@
       <c r="T13" t="inlineStr"/>
       <c r="U13" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F0BD66DA10&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBA99A0&gt;</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
@@ -1390,7 +1390,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>C05343188</t>
+          <t>C12555717</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -1398,12 +1398,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Cc1ccc([C@H]2c3c(-c4cc(Cl)c(C)cc4O)n[nH]c3C(=O)N2CCO)cc1</t>
+          <t>Nc1ncnc2sc3c(c12)CCN(C(=O)/C=C/c1ccccc1F)C3</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Cc1ccc([C@H]2c3c(-c4cc(Cl)c(C)cc4O)n[nH]c3C(=O)N2CCO)cc1</t>
+          <t>Nc1ncnc2sc3c(c12)CCN(C(=O)/C=C/c1ccccc1F)C3</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1417,16 +1417,16 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>397.86</v>
+        <v>354.41</v>
       </c>
       <c r="H14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>4</v>
       </c>
       <c r="J14" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K14" t="n">
         <v>4</v>
@@ -1435,7 +1435,7 @@
         <v>3</v>
       </c>
       <c r="M14" t="n">
-        <v>89.45</v>
+        <v>72.11</v>
       </c>
       <c r="N14" t="inlineStr"/>
       <c r="O14" t="inlineStr"/>
@@ -1446,7 +1446,7 @@
       <c r="T14" t="inlineStr"/>
       <c r="U14" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F0BD66EC00&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBA9690&gt;</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
@@ -1458,7 +1458,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>C36769023</t>
+          <t>C05343188</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -1466,12 +1466,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>CC[C@H]1CN([C@@H](C)C(=O)Nc2ccc(Cl)cc2N)CCO1</t>
+          <t>Cc1ccc([C@H]2c3c(-c4cc(Cl)c(C)cc4O)n[nH]c3C(=O)N2CCO)cc1</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>CC[C@H]1CN([C@@H](C)C(=O)Nc2ccc(Cl)cc2N)CCO1</t>
+          <t>Cc1ccc([C@H]2c3c(-c4cc(Cl)c(C)cc4O)n[nH]c3C(=O)N2CCO)cc1</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1485,10 +1485,10 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>311.81</v>
+        <v>397.86</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I15" t="n">
         <v>4</v>
@@ -1497,13 +1497,13 @@
         <v>4</v>
       </c>
       <c r="K15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M15" t="n">
-        <v>67.59</v>
+        <v>89.45</v>
       </c>
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr"/>
@@ -1514,7 +1514,7 @@
       <c r="T15" t="inlineStr"/>
       <c r="U15" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F0BD66F140&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBA9D90&gt;</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
@@ -1526,7 +1526,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>C39557917</t>
+          <t>C36769023</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -1534,12 +1534,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>C[C@@H](NC(=O)N[C@@H]1NN[C@H](c2cccs2)S1)C1=CC2=CC=N[C@@H]2C=C1</t>
+          <t>CC[C@H]1CN([C@@H](C)C(=O)Nc2ccc(Cl)cc2N)CCO1</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>C[C@@H](NC(=O)N[C@@H]1NN[C@H](c2cccs2)S1)C1=CC2=CC=N[C@@H]2C=C1</t>
+          <t>CC[C@H]1CN([C@@H](C)C(=O)Nc2ccc(Cl)cc2N)CCO1</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1553,10 +1553,10 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>373.51</v>
+        <v>311.81</v>
       </c>
       <c r="H16" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I16" t="n">
         <v>4</v>
@@ -1565,13 +1565,13 @@
         <v>4</v>
       </c>
       <c r="K16" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
       <c r="M16" t="n">
-        <v>77.55</v>
+        <v>67.59</v>
       </c>
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr"/>
@@ -1582,7 +1582,7 @@
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F0BD66D5B0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBA9FC0&gt;</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
@@ -1594,7 +1594,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>C39652797</t>
+          <t>C37538773</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -1602,12 +1602,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>CCOc1ccccc1CCNC(=O)[C@H]1CN(C(=O)c2ccc3ccccc3n2)CC12CC[NH2+]CC2</t>
+          <t>CC(=O)OC[C@@H]1O[C@H](O[C@@H]2[C@H](C(C)C)CC[C@@]3(C)[C@H](O)CC=C(C)[C@@H]23)[C@H](O)[C@H](O)[C@@H]1O</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>CCOc1ccccc1CCNC(=O)[C@H]1CN(C(=O)c2ccc3ccccc3n2)CC12CC[NH2+]CC2</t>
+          <t>CC(=O)OC[C@@H]1O[C@H](O[C@@H]2[C@H](C(C)C)CC[C@@]3(C)[C@H](O)CC=C(C)[C@@H]23)[C@H](O)[C@H](O)[C@@H]1O</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1621,25 +1621,25 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>487.62</v>
+        <v>442.55</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I17" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J17" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L17" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>88.14</v>
+        <v>125.68</v>
       </c>
       <c r="N17" t="inlineStr"/>
       <c r="O17" t="inlineStr"/>
@@ -1650,7 +1650,7 @@
       <c r="T17" t="inlineStr"/>
       <c r="U17" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F0BD66F300&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBAA0A0&gt;</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
@@ -1718,7 +1718,7 @@
       <c r="T18" t="inlineStr"/>
       <c r="U18" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F0BD66DE70&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBAA110&gt;</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
@@ -1730,7 +1730,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>C43410998</t>
+          <t>C39412416</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -1738,12 +1738,12 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>NC(=S)c1cc2c(nc1Oc1ccccc1Cl)CCCC2</t>
+          <t>Cc1ccc2c(c1)=C1N=NC(N/N=C/c3cc(Br)ccc3O)=[NH+][C@H]1[NH+]=2</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>NC(=S)c1cc2c(nc1Oc1ccccc1Cl)CCCC2</t>
+          <t>Cc1ccc2c(c1)=C1N=NC(N/N=C/c3cc(Br)ccc3O)=[NH+][C@H]1[NH+]=2</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1757,25 +1757,25 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>318.83</v>
+        <v>399.25</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I19" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L19" t="n">
         <v>2</v>
       </c>
       <c r="M19" t="n">
-        <v>48.14</v>
+        <v>97.28</v>
       </c>
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr"/>
@@ -1786,7 +1786,7 @@
       <c r="T19" t="inlineStr"/>
       <c r="U19" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F0BD66DAF0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBA8F20&gt;</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
@@ -1798,7 +1798,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>C40758142</t>
+          <t>C66323440</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -1806,12 +1806,12 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Cc1cccnc1Nc1ncnc(Nc2ccc(Br)cc2F)c1N</t>
+          <t>Clc1nc(Cl)c2[nH]cc(Br)c2n1</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Cc1cccnc1Nc1ncnc(Nc2ccc(Br)cc2F)c1N</t>
+          <t>Clc1nc(Cl)c2[nH]cc(Br)c2n1</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1821,29 +1821,29 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Test</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>389.23</v>
+        <v>266.91</v>
       </c>
       <c r="H20" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J20" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M20" t="n">
-        <v>88.75</v>
+        <v>41.57</v>
       </c>
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr"/>
@@ -1854,7 +1854,7 @@
       <c r="T20" t="inlineStr"/>
       <c r="U20" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F0BD66F370&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBA98C0&gt;</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
@@ -1866,7 +1866,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>C17304371</t>
+          <t>C40758142</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -1874,12 +1874,12 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>O=C(CCc1ccc(S(=O)(=O)N2CCCC2)cc1)N=c1[nH]c2ccccc2[nH]1</t>
+          <t>Cc1cccnc1Nc1ncnc(Nc2ccc(Br)cc2F)c1N</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>O=C(CCc1ccc(S(=O)(=O)N2CCCC2)cc1)N=c1[nH]c2ccccc2[nH]1</t>
+          <t>Cc1cccnc1Nc1ncnc(Nc2ccc(Br)cc2F)c1N</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1893,25 +1893,25 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>398.49</v>
+        <v>389.23</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I21" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L21" t="n">
         <v>3</v>
       </c>
       <c r="M21" t="n">
-        <v>98.39</v>
+        <v>88.75</v>
       </c>
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr"/>
@@ -1922,7 +1922,7 @@
       <c r="T21" t="inlineStr"/>
       <c r="U21" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F0BD66FCA0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBA9C40&gt;</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
@@ -1934,7 +1934,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>C05259828</t>
+          <t>C17304371</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -1942,12 +1942,12 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Nc1nc(Cn2cc(C(F)(F)F)cc(Cl)c2=O)nc(Nc2ccccc2)n1</t>
+          <t>O=C(CCc1ccc(S(=O)(=O)N2CCCC2)cc1)N=c1[nH]c2ccccc2[nH]1</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Nc1nc(Cn2cc(C(F)(F)F)cc(Cl)c2=O)nc(Nc2ccccc2)n1</t>
+          <t>O=C(CCc1ccc(S(=O)(=O)N2CCCC2)cc1)N=c1[nH]c2ccccc2[nH]1</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1961,25 +1961,25 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>396.76</v>
+        <v>398.49</v>
       </c>
       <c r="H22" t="n">
         <v>2</v>
       </c>
       <c r="I22" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L22" t="n">
         <v>3</v>
       </c>
       <c r="M22" t="n">
-        <v>98.72</v>
+        <v>98.39</v>
       </c>
       <c r="N22" t="inlineStr"/>
       <c r="O22" t="inlineStr"/>
@@ -1990,7 +1990,7 @@
       <c r="T22" t="inlineStr"/>
       <c r="U22" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F0BD66DEE0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBA9E00&gt;</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
@@ -2058,7 +2058,7 @@
       <c r="T23" t="inlineStr"/>
       <c r="U23" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F0BD66DF50&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBA9E70&gt;</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
@@ -2070,7 +2070,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>C24273519</t>
+          <t>C05478046</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -2078,12 +2078,12 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>CC(=O)Nc1ccc(C)c(S(=O)(=O)Nc2ccccc2C(=O)NCC(F)(F)F)c1</t>
+          <t>O=C1[C@H]2[C@@H]3C[C@@H]([C@H](O)[C@H]3O)[C@@H]2C(=O)N1c1ccccc1O</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>CC(=O)Nc1ccc(C)c(S(=O)(=O)Nc2ccccc2C(=O)NCC(F)(F)F)c1</t>
+          <t>O=C1[C@H]2[C@@H]3C[C@@H]([C@H](O)[C@H]3O)[C@@H]2C(=O)N1c1ccccc1O</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -2097,25 +2097,25 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>429.42</v>
+        <v>289.29</v>
       </c>
       <c r="H24" t="n">
         <v>3</v>
       </c>
       <c r="I24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J24" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="K24" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M24" t="n">
-        <v>104.37</v>
+        <v>98.06999999999999</v>
       </c>
       <c r="N24" t="inlineStr"/>
       <c r="O24" t="inlineStr"/>
@@ -2126,7 +2126,7 @@
       <c r="T24" t="inlineStr"/>
       <c r="U24" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F0BD66FA70&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBA84A0&gt;</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
@@ -2138,7 +2138,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>C39973096</t>
+          <t>CHEMBL464238</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -2146,12 +2146,12 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Cc1cc2c(cc1C)=[NH+]C(/C(C#N)=C\c1cn(Cc3ccc([N+](=O)[O-])cc3)c3ccccc13)[NH+]=2</t>
+          <t>O=C(NOCCO)c1cc(COCCO)c(F)c(F)c1Nc1ccc(I)cc1F</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Cc1cc2c(cc1C)=[NH+]C(/C(C#N)=C\c1cn(Cc3ccc([N+](=O)[O-])cc3)c3ccccc13)[NH+]=2</t>
+          <t>O=C(NOCCO)c1cc(COCCO)c(F)c(F)c1Nc1ccc(I)cc1F</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -2161,40 +2161,66 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Test</t>
+          <t>External</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>449.51</v>
+        <v>526.25</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I25" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J25" t="n">
+        <v>10</v>
+      </c>
+      <c r="K25" t="n">
+        <v>2</v>
+      </c>
+      <c r="L25" t="n">
+        <v>2</v>
+      </c>
+      <c r="M25" t="n">
+        <v>100.05</v>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>Inhibition</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>'='</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="Q25" t="n">
         <v>5</v>
       </c>
-      <c r="K25" t="n">
-        <v>5</v>
-      </c>
-      <c r="L25" t="n">
-        <v>4</v>
-      </c>
-      <c r="M25" t="n">
-        <v>99.8</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
-      <c r="O25" t="inlineStr"/>
-      <c r="P25" t="inlineStr"/>
-      <c r="Q25" t="inlineStr"/>
-      <c r="R25" t="inlineStr"/>
-      <c r="S25" t="inlineStr"/>
-      <c r="T25" t="inlineStr"/>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>CHEMBL1011756</t>
+        </is>
+      </c>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>Binding affinity to MK2 at 10 uM</t>
+        </is>
+      </c>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>single protein format</t>
+        </is>
+      </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F0BD66F610&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBA9AF0&gt;</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
@@ -2206,7 +2232,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>CHEMBL407373</t>
+          <t>CHEMBL233001</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -2214,12 +2240,12 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>CCCC(=O)Nc1n[nH]c2ncc(-c3ccccc3F)cc12</t>
+          <t>N#Cc1c(NC(=O)c2cccc3ccccc23)sc2c1CCCC2</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>CCCC(=O)Nc1n[nH]c2ncc(-c3ccccc3F)cc12</t>
+          <t>N#Cc1c(NC(=O)c2cccc3ccccc23)sc2c1CCCC2</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -2233,25 +2259,25 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>298.32</v>
+        <v>332.43</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J26" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L26" t="n">
         <v>3</v>
       </c>
       <c r="M26" t="n">
-        <v>70.67</v>
+        <v>52.89</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
@@ -2269,16 +2295,16 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>5</v>
+        <v>3.95</v>
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>CHEMBL732487</t>
+          <t>CHEMBL1961969</t>
         </is>
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>Inhibition of MAPKAP-K2 in presence of 10 uM ATP</t>
+          <t>GSK_PKIS: MAPKAPK2 mean inhibition at 1 uM [Nanosyn]</t>
         </is>
       </c>
       <c r="T26" t="inlineStr">
@@ -2288,7 +2314,7 @@
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F0BD66E1F0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBA93F0&gt;</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
